--- a/course_materials/Fall2019_points_time.xlsx
+++ b/course_materials/Fall2019_points_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/Bayes_course/git_public/course_materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/STAT_445-645/git_public/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05D9AC-FF69-A546-8093-93B7C9AC399D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F75D52-C77C-DF4A-BE85-D036CED66FB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28240" xr2:uid="{5B157F0B-9104-0946-B9B4-284B01756121}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" xr2:uid="{5B157F0B-9104-0946-B9B4-284B01756121}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,9 +503,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43493</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -526,9 +524,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43495</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -549,9 +545,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43500</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -559,22 +553,20 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43507</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5">
         <v>4</v>
       </c>
@@ -582,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -595,9 +587,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43509</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -618,9 +608,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43516</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -634,16 +622,14 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43516</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8">
         <v>5</v>
       </c>
@@ -651,22 +637,20 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43521</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -674,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -687,9 +671,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43528</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10">
         <v>7</v>
       </c>
@@ -697,22 +679,20 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43528</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11">
         <v>7</v>
       </c>
@@ -726,16 +706,14 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43535</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>8</v>
       </c>
@@ -743,22 +721,20 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43535</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>8</v>
       </c>
@@ -772,16 +748,14 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43537</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>8</v>
       </c>
@@ -802,9 +776,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43549</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15">
         <v>10</v>
       </c>
@@ -812,22 +784,20 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43549</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>10</v>
       </c>
@@ -841,16 +811,14 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43551</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17">
         <v>10</v>
       </c>
@@ -871,9 +839,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43556</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18">
         <v>11</v>
       </c>
@@ -881,22 +847,20 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43556</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>11</v>
       </c>
@@ -910,16 +874,14 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43563</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20">
         <v>12</v>
       </c>
@@ -927,22 +889,20 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43565</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21">
         <v>12</v>
       </c>
@@ -950,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -963,9 +923,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43570</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22">
         <v>13</v>
       </c>
@@ -986,9 +944,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43577</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23">
         <v>14</v>
       </c>
@@ -1009,9 +965,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43577</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>14</v>
       </c>
@@ -1025,16 +979,14 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43584</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25">
         <v>15</v>
       </c>
@@ -1055,9 +1007,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43586</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26">
         <v>15</v>
       </c>
@@ -1065,22 +1015,20 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43598</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27">
         <v>17</v>
       </c>
